--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -664,6 +664,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.8421052631579</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>57.89473684210526</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="D14" t="n">
-        <v>5.263157894736842</v>
+        <v>9.523809523809524</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.33333333333334</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C14" t="n">
-        <v>57.14285714285715</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="D14" t="n">
-        <v>9.523809523809524</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk1</t>
+          <t>'23, wk2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk2</t>
+          <t>'23, wk3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.83333333333334</v>
+        <v>29.41176470588235</v>
       </c>
       <c r="C3" t="n">
-        <v>20.83333333333333</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="D3" t="n">
-        <v>33.33333333333334</v>
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk3</t>
+          <t>'23, wk4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.41176470588235</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>35.29411764705883</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D4" t="n">
-        <v>35.29411764705883</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk4</t>
+          <t>'23, wk5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>38.09523809523809</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>33.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk5</t>
+          <t>'23, wk6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>13.33333333333333</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D6" t="n">
-        <v>26.66666666666667</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk6</t>
+          <t>'23, wk7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.66666666666667</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="C7" t="n">
-        <v>61.11111111111111</v>
+        <v>30.43478260869565</v>
       </c>
       <c r="D7" t="n">
-        <v>22.22222222222222</v>
+        <v>26.08695652173913</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.47826086956522</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C8" t="n">
-        <v>30.43478260869565</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D8" t="n">
-        <v>26.08695652173913</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.28571428571428</v>
+        <v>47.05882352941177</v>
       </c>
       <c r="C9" t="n">
-        <v>31.42857142857143</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>14.28571428571429</v>
+        <v>19.6078431372549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.05882352941177</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C10" t="n">
-        <v>33.33333333333334</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D10" t="n">
-        <v>19.6078431372549</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.21428571428572</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="C11" t="n">
-        <v>23.21428571428572</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="D11" t="n">
-        <v>28.57142857142857</v>
+        <v>24.32432432432432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.54054054054054</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="C12" t="n">
-        <v>35.13513513513514</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="D12" t="n">
-        <v>24.32432432432432</v>
+        <v>32.43243243243244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.72972972972973</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C13" t="n">
-        <v>37.83783783783784</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="D13" t="n">
-        <v>32.43243243243244</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>54.54545454545455</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.72972972972973</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="C12" t="n">
-        <v>37.83783783783784</v>
+        <v>36.8421052631579</v>
       </c>
       <c r="D12" t="n">
-        <v>32.43243243243244</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="13">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.36363636363637</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="C13" t="n">
-        <v>54.54545454545455</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="D13" t="n">
-        <v>9.090909090909092</v>
+        <v>8.695652173913043</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.05882352941177</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C9" t="n">
-        <v>33.33333333333334</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6078431372549</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.57894736842105</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8421052631579</v>
+        <v>35.8974358974359</v>
       </c>
       <c r="D12" t="n">
-        <v>31.57894736842105</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.1304347826087</v>
+        <v>37.5</v>
       </c>
       <c r="C13" t="n">
-        <v>52.17391304347826</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>8.695652173913043</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="14">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.54054054054054</v>
+        <v>41.02564102564103</v>
       </c>
       <c r="C11" t="n">
-        <v>35.13513513513514</v>
+        <v>35.8974358974359</v>
       </c>
       <c r="D11" t="n">
-        <v>24.32432432432432</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.33333333333334</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>35.8974358974359</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>30.76923076923077</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.46153846153846</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="C13" t="n">
-        <v>46.15384615384615</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="D13" t="n">
-        <v>15.38461538461539</v>
+        <v>14.81481481481481</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D14" t="n">
-        <v>16.66666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.74074074074074</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="C13" t="n">
-        <v>44.44444444444444</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D13" t="n">
-        <v>14.81481481481481</v>
+        <v>17.85714285714286</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.28571428571428</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="C13" t="n">
-        <v>42.85714285714285</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D13" t="n">
-        <v>17.85714285714286</v>
+        <v>17.24137931034483</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.85714285714285</v>
+        <v>37.5</v>
       </c>
       <c r="C14" t="n">
-        <v>42.85714285714285</v>
+        <v>37.5</v>
       </c>
       <c r="D14" t="n">
-        <v>14.28571428571429</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>37.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.93103448275862</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>44.82758620689656</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="D13" t="n">
-        <v>17.24137931034483</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.66666666666666</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="C13" t="n">
-        <v>46.66666666666666</v>
+        <v>45.16129032258065</v>
       </c>
       <c r="D13" t="n">
-        <v>16.66666666666667</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.33333333333334</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33333333333334</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="13">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.45454545454545</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C14" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.02564102564103</v>
+        <v>42.5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.8974358974359</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
-        <v>23.07692307692308</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="12">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.66666666666666</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk2</t>
+          <t>'23, wk3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.83333333333334</v>
+        <v>29.41176470588235</v>
       </c>
       <c r="C2" t="n">
-        <v>20.83333333333333</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="D2" t="n">
-        <v>33.33333333333334</v>
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk3</t>
+          <t>'23, wk4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.41176470588235</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>35.29411764705883</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D3" t="n">
-        <v>35.29411764705883</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk4</t>
+          <t>'23, wk5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>38.09523809523809</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>33.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk5</t>
+          <t>'23, wk6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>13.33333333333333</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>26.66666666666667</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk6</t>
+          <t>'23, wk7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.66666666666667</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="C6" t="n">
-        <v>61.11111111111111</v>
+        <v>30.43478260869565</v>
       </c>
       <c r="D6" t="n">
-        <v>22.22222222222222</v>
+        <v>26.08695652173913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.47826086956522</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C7" t="n">
-        <v>30.43478260869565</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>26.08695652173913</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C8" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D8" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C9" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D9" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.21428571428572</v>
+        <v>42.5</v>
       </c>
       <c r="C10" t="n">
-        <v>23.21428571428572</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>28.57142857142857</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.5</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="D11" t="n">
-        <v>22.5</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.71428571428572</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="C12" t="n">
-        <v>35.71428571428572</v>
+        <v>45.16129032258065</v>
       </c>
       <c r="D12" t="n">
-        <v>28.57142857142857</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.70967741935484</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="C13" t="n">
-        <v>45.16129032258065</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="D13" t="n">
-        <v>16.12903225806452</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.15384615384615</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>30.76923076923077</v>
+        <v>31.25</v>
       </c>
       <c r="D13" t="n">
-        <v>23.07692307692308</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C13" t="n">
-        <v>31.25</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>18.75</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.44444444444444</v>
+        <v>42.10526315789474</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="D13" t="n">
-        <v>22.22222222222222</v>
+        <v>26.31578947368421</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.33333333333334</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>66.66666666666667</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.47826086956522</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>30.43478260869565</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>26.08695652173913</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="7">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.10526315789474</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>31.57894736842105</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>26.31578947368421</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.70967741935484</v>
+        <v>40.625</v>
       </c>
       <c r="C12" t="n">
-        <v>45.16129032258065</v>
+        <v>43.75</v>
       </c>
       <c r="D12" t="n">
-        <v>16.12903225806452</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>28.57142857142857</v>
+        <v>37.5</v>
       </c>
       <c r="D14" t="n">
-        <v>42.85714285714285</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C14" t="n">
-        <v>37.5</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="D14" t="n">
-        <v>37.5</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk3</t>
+          <t>'23, wk4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.41176470588235</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>35.29411764705883</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D2" t="n">
-        <v>35.29411764705883</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk4</t>
+          <t>'23, wk5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>38.09523809523809</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>33.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk5</t>
+          <t>'23, wk6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>13.33333333333333</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D4" t="n">
-        <v>26.66666666666667</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk6</t>
+          <t>'23, wk7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.66666666666667</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>61.11111111111111</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>22.22222222222222</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.66666666666666</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C6" t="n">
-        <v>29.16666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D6" t="n">
-        <v>29.16666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C7" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D7" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C8" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D8" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C9" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D9" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.46341463414634</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C10" t="n">
-        <v>34.14634146341464</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="D10" t="n">
-        <v>24.39024390243902</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.71428571428572</v>
+        <v>40.625</v>
       </c>
       <c r="C11" t="n">
-        <v>35.71428571428572</v>
+        <v>43.75</v>
       </c>
       <c r="D11" t="n">
-        <v>28.57142857142857</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.625</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C12" t="n">
-        <v>43.75</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>15.625</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.09523809523809</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C13" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D13" t="n">
         <v>33.33333333333334</v>
-      </c>
-      <c r="D13" t="n">
-        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.22222222222222</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>33.33333333333334</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.36363636363637</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>36.36363636363637</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.66666666666667</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.66666666666666</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.14285714285715</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.71428571428572</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C10" t="n">
-        <v>35.71428571428572</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D10" t="n">
-        <v>28.57142857142857</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="11">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,206 +458,206 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk4</t>
+          <t>'23, wk5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>38.09523809523809</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>33.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk5</t>
+          <t>'23, wk6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>13.33333333333333</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D3" t="n">
-        <v>26.66666666666667</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk6</t>
+          <t>'23, wk7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.66666666666667</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>61.11111111111111</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22222222222222</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.66666666666666</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C5" t="n">
-        <v>29.16666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D5" t="n">
-        <v>29.16666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C6" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D6" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C7" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D7" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C8" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D8" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C9" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D9" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.58536585365854</v>
+        <v>40.625</v>
       </c>
       <c r="C10" t="n">
-        <v>36.58536585365854</v>
+        <v>43.75</v>
       </c>
       <c r="D10" t="n">
-        <v>26.82926829268293</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.625</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C11" t="n">
-        <v>43.75</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>15.625</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.09523809523809</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="C12" t="n">
-        <v>33.33333333333334</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="D12" t="n">
-        <v>28.57142857142857</v>
+        <v>23.07692307692308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.46153846153846</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C13" t="n">
-        <v>38.46153846153846</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D13" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.14285714285715</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.14285714285715</v>
+        <v>62.5</v>
       </c>
       <c r="C13" t="n">
-        <v>42.85714285714285</v>
+        <v>37.5</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.5</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="C13" t="n">
-        <v>37.5</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.46153846153846</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C12" t="n">
-        <v>38.46153846153846</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D12" t="n">
-        <v>23.07692307692308</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="13">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.63636363636363</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>36.36363636363637</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.66666666666667</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.66666666666667</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.66666666666667</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk5</t>
+          <t>'23, wk6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>13.33333333333333</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D2" t="n">
-        <v>26.66666666666667</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk6</t>
+          <t>'23, wk7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.66666666666667</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>61.11111111111111</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>22.22222222222222</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.66666666666666</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C4" t="n">
-        <v>29.16666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D4" t="n">
-        <v>29.16666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C5" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D5" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C6" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D6" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C7" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D7" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C8" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D8" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.58536585365854</v>
+        <v>40.625</v>
       </c>
       <c r="C9" t="n">
-        <v>36.58536585365854</v>
+        <v>43.75</v>
       </c>
       <c r="D9" t="n">
-        <v>26.82926829268293</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.625</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C10" t="n">
-        <v>43.75</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>15.625</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C11" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D11" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.71428571428572</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="C12" t="n">
-        <v>42.85714285714285</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="D12" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.53846153846154</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>38.46153846153846</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>16.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="D13" t="n">
-        <v>16.66666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.14285714285715</v>
+        <v>62.5</v>
       </c>
       <c r="C13" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>14.28571428571429</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>11.11111111111111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.625</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C9" t="n">
-        <v>43.75</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D9" t="n">
-        <v>15.625</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="10">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.53846153846154</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C12" t="n">
-        <v>38.46153846153846</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.85714285714285</v>
+        <v>37.5</v>
       </c>
       <c r="C14" t="n">
-        <v>14.28571428571429</v>
+        <v>12.5</v>
       </c>
       <c r="D14" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk6</t>
+          <t>'23, wk7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.66666666666667</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>61.11111111111111</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>22.22222222222222</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.66666666666666</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C3" t="n">
-        <v>29.16666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D3" t="n">
-        <v>29.16666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C4" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D4" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C5" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D5" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C6" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D6" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C7" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D7" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C8" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D8" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C9" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C10" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D10" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.71428571428572</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C11" t="n">
         <v>42.85714285714285</v>
       </c>
       <c r="D11" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.14285714285715</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C12" t="n">
-        <v>42.85714285714285</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.54545454545455</v>
+        <v>37.5</v>
       </c>
       <c r="C13" t="n">
-        <v>36.36363636363637</v>
+        <v>12.5</v>
       </c>
       <c r="D13" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.14285714285715</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.33333333333334</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C13" t="n">
-        <v>22.22222222222222</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D13" t="n">
-        <v>44.44444444444444</v>
+        <v>36.36363636363637</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.27272727272727</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="C13" t="n">
-        <v>36.36363636363637</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="D13" t="n">
-        <v>36.36363636363637</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.76923076923077</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>30.76923076923077</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>38.46153846153846</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>43.75</v>
       </c>
       <c r="C13" t="n">
-        <v>26.66666666666667</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>33.33333333333334</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="14">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.75</v>
+        <v>47.05882352941177</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D13" t="n">
-        <v>31.25</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk7</t>
+          <t>'23, wk8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.66666666666666</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="C2" t="n">
-        <v>29.16666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>29.16666666666667</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C3" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D3" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C4" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D4" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C5" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D5" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C6" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D6" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C7" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D7" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C8" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C9" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D9" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.54545454545455</v>
+        <v>47.05882352941177</v>
       </c>
       <c r="C12" t="n">
-        <v>36.36363636363637</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D12" t="n">
-        <v>9.090909090909092</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.05882352941177</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C13" t="n">
-        <v>23.52941176470588</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>29.41176470588235</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>16.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="D13" t="n">
-        <v>16.66666666666667</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C13" t="n">
-        <v>37.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,206 +458,206 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk8</t>
+          <t>'23, wk9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.28571428571428</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="C2" t="n">
-        <v>31.42857142857143</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="D2" t="n">
-        <v>14.28571428571429</v>
+        <v>19.23076923076923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C3" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D3" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C4" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D4" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C5" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D5" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C6" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D6" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C7" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C8" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D8" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.54545454545455</v>
+        <v>47.05882352941177</v>
       </c>
       <c r="C11" t="n">
-        <v>36.36363636363637</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D11" t="n">
-        <v>9.090909090909092</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.05882352941177</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C12" t="n">
-        <v>23.52941176470588</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>29.41176470588235</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>33.33333333333334</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="13">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk9</t>
+          <t>'23, wk10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.07692307692308</v>
+        <v>48.21428571428572</v>
       </c>
       <c r="C2" t="n">
-        <v>32.69230769230769</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="D2" t="n">
-        <v>19.23076923076923</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C3" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D3" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C4" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D4" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C5" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D5" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C6" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C7" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D7" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.54545454545455</v>
+        <v>47.05882352941177</v>
       </c>
       <c r="C10" t="n">
-        <v>36.36363636363637</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D10" t="n">
-        <v>9.090909090909092</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.05882352941177</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C11" t="n">
-        <v>23.52941176470588</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D11" t="n">
-        <v>29.41176470588235</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>40</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk10</t>
+          <t>'23, wk11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.21428571428572</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="C2" t="n">
-        <v>23.21428571428572</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="D2" t="n">
-        <v>28.57142857142857</v>
+        <v>24.39024390243902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C3" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D3" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C4" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D4" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C5" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C6" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D6" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.54545454545455</v>
+        <v>47.05882352941177</v>
       </c>
       <c r="C9" t="n">
-        <v>36.36363636363637</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D9" t="n">
-        <v>9.090909090909092</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.05882352941177</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C10" t="n">
-        <v>23.52941176470588</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D10" t="n">
-        <v>29.41176470588235</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.05882352941177</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>23.52941176470588</v>
+        <v>18.75</v>
       </c>
       <c r="D9" t="n">
-        <v>29.41176470588235</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="10">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,199 +458,199 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk11</t>
+          <t>'23, wk12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.46341463414634</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="C2" t="n">
-        <v>34.14634146341464</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="D2" t="n">
-        <v>24.39024390243902</v>
+        <v>26.82926829268293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C3" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D3" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C4" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C5" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D5" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.54545454545455</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36363636363637</v>
+        <v>18.75</v>
       </c>
       <c r="D8" t="n">
-        <v>9.090909090909092</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C9" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D9" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="14">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,206 +458,206 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk12</t>
+          <t>'23, wk13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.58536585365854</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="C2" t="n">
-        <v>36.58536585365854</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="D2" t="n">
-        <v>26.82926829268293</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C3" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D4" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.54545454545455</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>36.36363636363637</v>
+        <v>18.75</v>
       </c>
       <c r="D7" t="n">
-        <v>9.090909090909092</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C8" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D8" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>33.33333333333334</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.66666666666667</v>
+        <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.33333333333333</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="C13" t="n">
-        <v>16.66666666666667</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>14.28571428571429</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,183 +458,183 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk13</t>
+          <t>'23, wk14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.39393939393939</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="C2" t="n">
-        <v>42.42424242424242</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C3" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D3" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.54545454545455</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>36.36363636363637</v>
+        <v>18.75</v>
       </c>
       <c r="D6" t="n">
-        <v>9.090909090909092</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C7" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D7" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>33.33333333333334</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,11 +650,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,174 +458,174 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk14</t>
+          <t>'23, wk15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.09523809523809</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="C2" t="n">
-        <v>33.33333333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D2" t="n">
-        <v>28.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.54545454545455</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36363636363637</v>
+        <v>18.75</v>
       </c>
       <c r="D5" t="n">
-        <v>9.090909090909092</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C6" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D6" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -634,33 +634,33 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk27</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,158 +458,158 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk15</t>
+          <t>'23, wk16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.71428571428572</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.54545454545455</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>36.36363636363637</v>
+        <v>18.75</v>
       </c>
       <c r="D4" t="n">
-        <v>9.090909090909092</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C5" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D5" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -618,46 +618,46 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk27</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk27</t>
+          <t>'23, wk28</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,142 +458,142 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk16</t>
+          <t>'23, wk17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk17</t>
+          <t>'23, wk18</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.54545454545455</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>36.36363636363637</v>
+        <v>18.75</v>
       </c>
       <c r="D3" t="n">
-        <v>9.090909090909092</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C4" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D4" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -602,46 +602,46 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk27</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk27</t>
+          <t>'23, wk28</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk28</t>
+          <t>'23, wk29</t>
         </is>
       </c>
       <c r="B14" t="n">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,110 +458,110 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk18</t>
+          <t>'23, wk19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C2" t="n">
-        <v>18.75</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="D2" t="n">
-        <v>31.25</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -570,46 +570,46 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk27</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk27</t>
+          <t>'23, wk28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk28</t>
+          <t>'23, wk29</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk29</t>
+          <t>'23, wk30</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,11 +650,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk30</t>
+          <t>'23, wk31</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,94 +458,94 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk19</t>
+          <t>'23, wk20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>36.36363636363637</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk23</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -554,46 +554,46 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk27</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk27</t>
+          <t>'23, wk28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk28</t>
+          <t>'23, wk29</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk29</t>
+          <t>'23, wk30</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk30</t>
+          <t>'23, wk31</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,11 +650,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk31</t>
+          <t>'23, wk32</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk20</t>
+          <t>'23, wk24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -474,55 +474,55 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk21</t>
+          <t>'23, wk25</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk22</t>
+          <t>'23, wk26</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk23</t>
+          <t>'23, wk27</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk28</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk29</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -554,30 +554,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk30</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk27</t>
+          <t>'23, wk31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -586,14 +586,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk28</t>
+          <t>'23, wk32</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk29</t>
+          <t>'23, wk33</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,30 +618,30 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk30</t>
+          <t>'23, wk34</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk31</t>
+          <t>'23, wk35</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk32</t>
+          <t>'23, wk36</t>
         </is>
       </c>
       <c r="B14" t="n">

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk24</t>
+          <t>'23, wk28</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,14 +474,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk25</t>
+          <t>'23, wk29</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -490,30 +490,30 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk26</t>
+          <t>'23, wk30</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk27</t>
+          <t>'23, wk31</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk28</t>
+          <t>'23, wk32</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk29</t>
+          <t>'23, wk33</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,30 +554,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk30</t>
+          <t>'23, wk34</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk31</t>
+          <t>'23, wk35</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -586,14 +586,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk32</t>
+          <t>'23, wk36</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -602,62 +602,62 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk33</t>
+          <t>'23, wk37</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk34</t>
+          <t>'23, wk38</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>16.66666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="D12" t="n">
-        <v>33.33333333333334</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk35</t>
+          <t>'23, wk39</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>57.14285714285715</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk36</t>
+          <t>'23, wk40</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk28</t>
+          <t>'23, wk32</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk29</t>
+          <t>'23, wk33</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,30 +490,30 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk30</t>
+          <t>'23, wk34</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk31</t>
+          <t>'23, wk35</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk32</t>
+          <t>'23, wk36</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,30 +538,30 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk33</t>
+          <t>'23, wk37</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk34</t>
+          <t>'23, wk38</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C8" t="n">
-        <v>16.66666666666667</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="D8" t="n">
         <v>33.33333333333334</v>
@@ -570,97 +570,97 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk35</t>
+          <t>'23, wk39</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>57.14285714285715</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk36</t>
+          <t>'23, wk40</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>42.10526315789474</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>42.10526315789474</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk37</t>
+          <t>'23, wk41</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58.33333333333334</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C11" t="n">
-        <v>16.66666666666667</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk38</t>
+          <t>'23, wk42</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C12" t="n">
-        <v>37.5</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>37.5</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk39</t>
+          <t>'23, wk43</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>21.05263157894737</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk40</t>
+          <t>'23, wk44</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk32</t>
+          <t>'23, wk36</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,30 +474,30 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk33</t>
+          <t>'23, wk37</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk34</t>
+          <t>'23, wk38</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C4" t="n">
-        <v>16.66666666666667</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="D4" t="n">
         <v>33.33333333333334</v>
@@ -506,161 +506,161 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk35</t>
+          <t>'23, wk39</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>57.14285714285715</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk36</t>
+          <t>'23, wk40</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>36.8421052631579</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk37</t>
+          <t>'23, wk41</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.63636363636363</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>9.090909090909092</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk38</t>
+          <t>'23, wk42</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.22222222222222</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C8" t="n">
-        <v>44.44444444444444</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="D8" t="n">
-        <v>33.33333333333334</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk39</t>
+          <t>'23, wk43</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C9" t="n">
-        <v>16.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D9" t="n">
-        <v>16.66666666666667</v>
+        <v>23.80952380952381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk40</t>
+          <t>'23, wk44</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.10526315789474</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="C10" t="n">
-        <v>42.10526315789474</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="D10" t="n">
-        <v>15.78947368421053</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk41</t>
+          <t>'23, wk45</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.44444444444444</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="C11" t="n">
-        <v>22.22222222222222</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="D11" t="n">
-        <v>33.33333333333334</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk42</t>
+          <t>'23, wk46</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.14285714285715</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>21.42857142857143</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>21.42857142857143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk43</t>
+          <t>'23, wk47</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.57894736842105</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>47.36842105263158</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>21.05263157894737</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk44</t>
+          <t>'23, wk48</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/data/icu/reason-for-intake-per-week.xlsx
+++ b/data/icu/reason-for-intake-per-week.xlsx
@@ -458,209 +458,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>'23, wk36</t>
+          <t>'23, wk41</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>'23, wk37</t>
+          <t>'23, wk42</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.63636363636363</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="C3" t="n">
-        <v>9.090909090909092</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="D3" t="n">
-        <v>27.27272727272727</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>'23, wk38</t>
+          <t>'23, wk43</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>44.44444444444444</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D4" t="n">
-        <v>33.33333333333334</v>
+        <v>23.80952380952381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>'23, wk39</t>
+          <t>'23, wk44</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.66666666666667</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>16.66666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="D5" t="n">
-        <v>16.66666666666667</v>
+        <v>20.83333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>'23, wk40</t>
+          <t>'23, wk45</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.8421052631579</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="C6" t="n">
-        <v>47.36842105263158</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="D6" t="n">
-        <v>15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>'23, wk41</t>
+          <t>'23, wk46</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>33.33333333333334</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>'23, wk42</t>
+          <t>'23, wk47</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.14285714285715</v>
+        <v>42.10526315789474</v>
       </c>
       <c r="C8" t="n">
-        <v>21.42857142857143</v>
+        <v>36.8421052631579</v>
       </c>
       <c r="D8" t="n">
-        <v>21.42857142857143</v>
+        <v>21.05263157894737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>'23, wk43</t>
+          <t>'23, wk48</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33.33333333333334</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="C9" t="n">
-        <v>42.85714285714285</v>
+        <v>25.92592592592593</v>
       </c>
       <c r="D9" t="n">
-        <v>23.80952380952381</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>'23, wk44</t>
+          <t>'23, wk49</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.90909090909091</v>
+        <v>40.47619047619047</v>
       </c>
       <c r="C10" t="n">
-        <v>40.90909090909091</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="D10" t="n">
-        <v>18.18181818181818</v>
+        <v>23.80952380952381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>'23, wk45</t>
+          <t>'23, wk50</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.09090909090909</v>
+        <v>42.5</v>
       </c>
       <c r="C11" t="n">
-        <v>31.81818181818182</v>
+        <v>27.5</v>
       </c>
       <c r="D11" t="n">
-        <v>9.090909090909092</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>'23, wk46</t>
+          <t>'23, wk51</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>'23, wk47</t>
+          <t>'23, wk52</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.66666666666666</v>
+        <v>41.1764705882353</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D13" t="n">
-        <v>13.33333333333333</v>
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>'23, wk48</t>
+          <t>'24, wk1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>14.28571428571429</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
